--- a/ResultadoEleicoesDistritos/BEJA_ODEMIRA.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_ODEMIRA.xlsx
@@ -597,64 +597,64 @@
         <v>5868</v>
       </c>
       <c r="H2" t="n">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I2" t="n">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="J2" t="n">
-        <v>2363</v>
+        <v>2449</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>707</v>
+        <v>641</v>
       </c>
       <c r="M2" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N2" t="n">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>30</v>
+      </c>
+      <c r="S2" t="n">
+        <v>244</v>
+      </c>
+      <c r="T2" t="n">
+        <v>415</v>
+      </c>
+      <c r="U2" t="n">
+        <v>31</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3799</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>44</v>
-      </c>
-      <c r="S2" t="n">
-        <v>248</v>
-      </c>
-      <c r="T2" t="n">
-        <v>401</v>
-      </c>
-      <c r="U2" t="n">
-        <v>41</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3727</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>3828</v>
+        <v>3692</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
